--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>test case 1: 10 thread 12ms: 2ms</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>946f</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>waiting</t>
   </si>
 </sst>
 </file>
@@ -362,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -373,12 +382,21 @@
     <col min="1" max="1" width="26.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -391,8 +409,11 @@
       <c r="D2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F2">
+        <v>2.0569999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -405,8 +426,11 @@
       <c r="D3">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F3">
+        <v>6.4060000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -419,8 +443,20 @@
       <c r="D4">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>9.025E-3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -433,8 +469,20 @@
       <c r="D5">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>1.6001000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>1333</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -447,8 +495,20 @@
       <c r="D6">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>2.3902E-2</v>
+      </c>
+      <c r="G6">
+        <v>2500</v>
+      </c>
+      <c r="H6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>30</v>
       </c>
@@ -458,8 +518,20 @@
       <c r="D7">
         <v>329</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>2.6304000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>7666</v>
+      </c>
+      <c r="H7">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>50</v>
       </c>
@@ -468,6 +540,18 @@
       </c>
       <c r="D8" t="s">
         <v>6</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>5.4008E-2</v>
+      </c>
+      <c r="G8">
+        <v>9400</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
